--- a/org-chart/org_chart.xlsx
+++ b/org-chart/org_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp-new\htdocs\kagoa\responsive-organization-chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp-new\htdocs\kagoa\org-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="201">
   <si>
     <t>Name:Balakrishnan B.R Designation:Principal CCIT Email:balakrishnanbr@incometax.gov.in Office: PR.CCIT,BNG</t>
   </si>
@@ -612,6 +612,18 @@
   </si>
   <si>
     <t>Designation:ITO (JUDICIAL)-2, BNG</t>
+  </si>
+  <si>
+    <t>CCIT</t>
+  </si>
+  <si>
+    <t>CIT-admin</t>
+  </si>
+  <si>
+    <t>Cit-dr</t>
+  </si>
+  <si>
+    <t>cit-dr-2</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E234"/>
+  <dimension ref="B1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1027,7 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1055,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1067,7 +1079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1079,49 +1091,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
@@ -1129,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
@@ -1137,7 +1161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
@@ -1145,7 +1169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
@@ -1153,7 +1177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
     </row>
